--- a/14. Daily Summery/C&F Agent Wise Car Delivery Main.xlsx
+++ b/14. Daily Summery/C&F Agent Wise Car Delivery Main.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>Total Bill</t>
   </si>
@@ -52,72 +52,79 @@
     <t>SKY Enterprise</t>
   </si>
   <si>
+    <t>Panguchi Enterprise</t>
+  </si>
+  <si>
     <t>BIRDS BANGLADESH AGENCIES LTD</t>
   </si>
   <si>
+    <t>M/S WARISHA MOTORS</t>
+  </si>
+  <si>
     <t>M/S GOLDEN SHIPPING</t>
   </si>
   <si>
+    <t>M/S Khan Enterprise</t>
+  </si>
+  <si>
+    <t>M/S S. P TRADING</t>
+  </si>
+  <si>
     <t>M/S GOLDEN STAR AGENCIES</t>
   </si>
   <si>
-    <t>sunline agencies ltd</t>
-  </si>
-  <si>
-    <t>Panguchi Enterprise</t>
+    <t>Skiper Shipping Co Ltd</t>
+  </si>
+  <si>
+    <t>M/S J. F POPULAR EXPRESS</t>
+  </si>
+  <si>
+    <t>M/S K.H TRADING</t>
+  </si>
+  <si>
+    <t>M/S CONFIDENCE SHIPPING SERVICE</t>
+  </si>
+  <si>
+    <t>M/S GOLDEN SHIPPING / K.H TRADING (N)</t>
   </si>
   <si>
     <t>AHAMED ENTERPRISE C&amp;F CO,LTD</t>
   </si>
   <si>
+    <t>SMS GLOBAL LINK</t>
+  </si>
+  <si>
     <t>M/S SHAHID &amp; BROTHER'S</t>
   </si>
   <si>
+    <t>M/S Four Star Trading Company</t>
+  </si>
+  <si>
+    <t>SS Trading</t>
+  </si>
+  <si>
     <t>M/S Mohiuddin Ahmed &amp; Sons</t>
   </si>
   <si>
-    <t>M/S Mahfuz Enterprise</t>
-  </si>
-  <si>
-    <t>M/S Khan Enterprise</t>
-  </si>
-  <si>
-    <t>M/S SHINWA SHIPPING LINES</t>
-  </si>
-  <si>
-    <t>M/S WARISHA MOTORS</t>
-  </si>
-  <si>
-    <t>M/S CONFIDENCE SHIPPING SERVICE</t>
-  </si>
-  <si>
-    <t>M/S Trillion Shipping Agencies</t>
-  </si>
-  <si>
-    <t>Delivery Date: From 15/08/2024 To 15/08/2024</t>
-  </si>
-  <si>
-    <t>M/S Four Star Trading Company</t>
-  </si>
-  <si>
-    <t>Skiper Shipping Co Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/S K.H TRADING / SHAHID &amp; BROTHER'S (M) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/S K.H TRADING (M) </t>
+    <t>M/S CARRY-4 LOGISTICS</t>
+  </si>
+  <si>
+    <t>Delivery Date: From 09/09/2024 To 09/09/2024</t>
+  </si>
+  <si>
+    <t>M/S K.H TRADING /  SHAHID &amp; BROTHER'S (M)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="###0.00;###0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -168,6 +175,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,32 +212,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -278,6 +275,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -289,22 +312,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -316,9 +339,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,17 +351,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,43 +378,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,32 +715,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="33.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -726,381 +749,390 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="24">
+        <v>11</v>
+      </c>
+      <c r="D3" s="25">
+        <v>210047.15</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="24">
+        <v>9</v>
+      </c>
+      <c r="D4" s="25">
+        <v>183585.18</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="24">
+        <v>8</v>
+      </c>
+      <c r="D5" s="25">
+        <v>158031.70000000001</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24">
+        <v>9</v>
+      </c>
+      <c r="D6" s="25">
+        <v>156851.35</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="24">
+        <v>12</v>
+      </c>
+      <c r="D7" s="25">
+        <v>125644.5</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="24">
+        <v>10</v>
+      </c>
+      <c r="D8" s="25">
+        <v>72296</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="24">
+        <v>5</v>
+      </c>
+      <c r="D9" s="25">
+        <v>57516.6</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="24">
+        <v>6</v>
+      </c>
+      <c r="D10" s="25">
+        <v>54255.55</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C11" s="24">
+        <v>8</v>
+      </c>
+      <c r="D11" s="25">
+        <v>48766.53</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="D3" s="23">
-        <v>237919</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="B12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="24">
+        <v>7</v>
+      </c>
+      <c r="D12" s="25">
+        <v>47271.05</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="22">
-        <v>6</v>
-      </c>
-      <c r="D4" s="23">
-        <v>133896.4</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="D13" s="25">
+        <v>32139.3</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="C5" s="22">
-        <v>9</v>
-      </c>
-      <c r="D5" s="23">
-        <v>116709</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="B14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="24">
+        <v>7</v>
+      </c>
+      <c r="D14" s="25">
+        <v>15324.05</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="24">
+        <v>5</v>
+      </c>
+      <c r="D15" s="25">
+        <v>10244.25</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="24">
+        <v>5</v>
+      </c>
+      <c r="D16" s="25">
+        <v>9680.75</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
         <v>15</v>
       </c>
-      <c r="C6" s="22">
-        <v>6</v>
-      </c>
-      <c r="D6" s="23">
-        <v>87235.15</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="22">
-        <v>8</v>
-      </c>
-      <c r="D7" s="23">
-        <v>62133.2</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="22">
+      <c r="B17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="24">
         <v>2</v>
       </c>
-      <c r="D8" s="23">
-        <v>52448.3</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="22">
-        <v>4</v>
-      </c>
-      <c r="D9" s="23">
-        <v>46407.6</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23">
-        <v>30283.65</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="22">
-        <v>4</v>
-      </c>
-      <c r="D11" s="23">
-        <v>30100.6</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="22">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23">
-        <v>27309.3</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
-        <v>11</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="22">
-        <v>2</v>
-      </c>
-      <c r="D13" s="23">
-        <v>21128.05</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
-        <v>12</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="22">
-        <v>7</v>
-      </c>
-      <c r="D14" s="23">
-        <v>20361.05</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
-        <v>13</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="22">
-        <v>4</v>
-      </c>
-      <c r="D15" s="23">
-        <v>31181.599999999999</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="22">
-        <v>1</v>
-      </c>
-      <c r="D16" s="23">
-        <v>13654.65</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
-        <v>15</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="22">
-        <v>3</v>
-      </c>
-      <c r="D17" s="23">
-        <v>5486.45</v>
+      <c r="D17" s="25">
+        <v>3952.8</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="22">
+      <c r="B18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="24">
         <v>2</v>
       </c>
-      <c r="D18" s="23">
-        <v>3872.3</v>
+      <c r="D18" s="25">
+        <v>3952.8</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
         <v>17</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="22">
-        <v>2</v>
-      </c>
-      <c r="D19" s="23">
-        <v>3872.3</v>
+      <c r="B19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25">
+        <v>2258.15</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
         <v>18</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="22">
+      <c r="B20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="24">
         <v>1</v>
       </c>
-      <c r="D20" s="23">
-        <v>1936.15</v>
+      <c r="D20" s="25">
+        <v>2258.15</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="22">
-        <f>SUM(C3:C20)</f>
-        <v>74</v>
-      </c>
-      <c r="D21" s="23">
-        <f>SUM(D3:D20)</f>
-        <v>925934.75000000023</v>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="33">
+        <v>678.5</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="25"/>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="24">
+        <v>111</v>
+      </c>
+      <c r="D22" s="25">
+        <f>SUM(D3:D21)</f>
+        <v>1194754.3600000001</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="25"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="25"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1110,284 +1142,296 @@
       <c r="B32" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="20">
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
         <v>1</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="22">
-        <v>10</v>
+      <c r="B33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="24">
+        <v>11</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="20">
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="22">
         <v>2</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22">
-        <v>6</v>
+      <c r="B34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="24">
+        <v>9</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="20">
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="22">
         <v>3</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="22">
-        <v>9</v>
+      <c r="B35" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="24">
+        <v>8</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="22">
         <v>4</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="22">
-        <v>6</v>
+      <c r="C36" s="24">
+        <v>9</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
+    <row r="37" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="22">
         <v>5</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="22">
-        <v>8</v>
+      <c r="B37" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="24">
+        <v>12</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="22">
         <v>6</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="22">
-        <v>2</v>
+      <c r="B38" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="24">
+        <v>10</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="22">
         <v>7</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="22">
-        <v>4</v>
+      <c r="B39" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="24">
+        <v>5</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="20">
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="22">
         <v>8</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="22">
-        <v>1</v>
+      <c r="B40" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="24">
+        <v>6</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="20">
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="22">
         <v>9</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="22">
-        <v>4</v>
+      <c r="B41" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="24">
+        <v>8</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
+    <row r="42" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="22">
         <v>10</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="22">
-        <v>2</v>
+      <c r="B42" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="24">
+        <v>7</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="20">
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="22">
         <v>11</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="22">
+      <c r="B43" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="24">
         <v>2</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="20">
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22">
         <v>12</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="22">
+      <c r="B44" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="24">
         <v>7</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="20">
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="22">
         <v>13</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="22">
-        <v>4</v>
+      <c r="B45" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="24">
+        <v>5</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="20">
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="22">
         <v>14</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="22">
-        <v>1</v>
+      <c r="B46" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="24">
+        <v>5</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="20">
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="22">
         <v>15</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="22">
-        <v>3</v>
+      <c r="B47" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="24">
+        <v>2</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="20">
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="22">
         <v>16</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="22">
+      <c r="B48" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="24">
         <v>2</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="20">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="22">
         <v>17</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="22">
-        <v>2</v>
+      <c r="B49" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="34">
+        <v>1</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22">
         <v>18</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="22">
+      <c r="B50" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="34">
         <v>1</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="22">
-        <f>SUM(C33:C50)</f>
-        <v>74</v>
+    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="22">
+        <v>19</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="34">
+        <v>1</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="34">
+        <v>111</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
-  <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.45" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="14"/>
+    <col min="1" max="1" width="7.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1396,11 +1440,11 @@
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -1408,11 +1452,11 @@
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
@@ -1420,272 +1464,283 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>3</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>7</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>8</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <v>9</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C16" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
+      <c r="B17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>11</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
+        <v>12</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <v>13</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
+        <v>14</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>15</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
+        <v>16</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
+        <v>17</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
+        <v>18</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
+        <v>19</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
+        <v>20</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
-        <v>5</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
-        <v>6</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
-        <v>7</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
-        <v>8</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
-        <v>9</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
-        <v>10</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
-        <v>11</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
-        <v>12</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
-        <v>13</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
-        <v>14</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="31">
-        <v>15</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="31">
-        <v>16</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
-        <v>17</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
-        <v>18</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
-        <v>19</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="31">
-        <v>74</v>
+      <c r="B28" s="28"/>
+      <c r="C28" s="24">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="1.45" right="1.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/14. Daily Summery/C&F Agent Wise Car Delivery Main.xlsx
+++ b/14. Daily Summery/C&F Agent Wise Car Delivery Main.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Official\14. Daily Summery\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Summery Main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>Total Bill</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Panguchi Enterprise</t>
   </si>
   <si>
-    <t>BIRDS BANGLADESH AGENCIES LTD</t>
-  </si>
-  <si>
     <t>M/S WARISHA MOTORS</t>
   </si>
   <si>
@@ -67,62 +64,55 @@
     <t>M/S Khan Enterprise</t>
   </si>
   <si>
+    <t>M/S J. F POPULAR EXPRESS</t>
+  </si>
+  <si>
+    <t>M/S K.H TRADING</t>
+  </si>
+  <si>
+    <t>M/S CONFIDENCE SHIPPING SERVICE</t>
+  </si>
+  <si>
+    <t>AHAMED ENTERPRISE C&amp;F CO,LTD</t>
+  </si>
+  <si>
+    <t>M/S Mohiuddin Ahmed &amp; Sons</t>
+  </si>
+  <si>
+    <t>sunline agencies ltd</t>
+  </si>
+  <si>
+    <t>Skiper Shipping Co Ltd</t>
+  </si>
+  <si>
+    <t>Delivery Date: From 17/09/2024 To 17/09/2024</t>
+  </si>
+  <si>
     <t>M/S S. P TRADING</t>
   </si>
   <si>
+    <t>SS Trading</t>
+  </si>
+  <si>
     <t>M/S GOLDEN STAR AGENCIES</t>
   </si>
   <si>
-    <t>Skiper Shipping Co Ltd</t>
-  </si>
-  <si>
-    <t>M/S J. F POPULAR EXPRESS</t>
-  </si>
-  <si>
-    <t>M/S K.H TRADING</t>
-  </si>
-  <si>
-    <t>M/S CONFIDENCE SHIPPING SERVICE</t>
-  </si>
-  <si>
-    <t>M/S GOLDEN SHIPPING / K.H TRADING (N)</t>
-  </si>
-  <si>
-    <t>AHAMED ENTERPRISE C&amp;F CO,LTD</t>
-  </si>
-  <si>
-    <t>SMS GLOBAL LINK</t>
-  </si>
-  <si>
     <t>M/S SHAHID &amp; BROTHER'S</t>
   </si>
   <si>
-    <t>M/S Four Star Trading Company</t>
-  </si>
-  <si>
-    <t>SS Trading</t>
-  </si>
-  <si>
-    <t>M/S Mohiuddin Ahmed &amp; Sons</t>
-  </si>
-  <si>
-    <t>M/S CARRY-4 LOGISTICS</t>
-  </si>
-  <si>
-    <t>Delivery Date: From 09/09/2024 To 09/09/2024</t>
-  </si>
-  <si>
-    <t>M/S K.H TRADING /  SHAHID &amp; BROTHER'S (M)</t>
+    <t>M/S SHINWA SHIPPING LINES</t>
+  </si>
+  <si>
+    <t>M/S SHAHID &amp; BROTHER'S / K.H TRADING (M)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="###0.00;###0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -384,29 +374,29 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -715,10 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -733,14 +724,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="A1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -763,13 +754,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C3" s="24">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="25">
-        <v>210047.15</v>
+        <v>200730.25</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -779,13 +770,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="25">
-        <v>183585.18</v>
+        <v>197936.05</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -795,13 +786,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="25">
-        <v>158031.70000000001</v>
+        <v>119911.93</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -811,29 +802,29 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" s="24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" s="25">
-        <v>156851.35</v>
+        <v>115541.45</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C7" s="24">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7" s="25">
-        <v>125644.5</v>
+        <v>112145.28</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -843,13 +834,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="25">
-        <v>72296</v>
+        <v>91434.25</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -859,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="25">
-        <v>57516.6</v>
+        <v>89693.6</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -875,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="24">
         <v>6</v>
       </c>
       <c r="D10" s="25">
-        <v>54255.55</v>
+        <v>40786.65</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -891,29 +882,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" s="24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="25">
-        <v>48766.53</v>
+        <v>37561.550000000003</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>10</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="25">
-        <v>47271.05</v>
+        <v>28900.45</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -923,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C13" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="25">
-        <v>32139.3</v>
+        <v>23536.65</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -939,45 +930,45 @@
         <v>12</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" s="25">
-        <v>15324.05</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+        <v>18474.099999999999</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C15" s="24">
         <v>5</v>
       </c>
       <c r="D15" s="25">
-        <v>10244.25</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+        <v>25711.75</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C16" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="25">
-        <v>9680.75</v>
+        <v>12087.45</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -987,13 +978,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C17" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="25">
-        <v>3952.8</v>
+        <v>9609.2000000000007</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1003,13 +994,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="25">
-        <v>3952.8</v>
+        <v>4972.1499999999996</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1019,411 +1010,326 @@
         <v>17</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C19" s="24">
         <v>1</v>
       </c>
       <c r="D19" s="25">
-        <v>2258.15</v>
+        <v>3344.9</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
-        <v>18</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="A20" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="32"/>
       <c r="C20" s="24">
-        <v>1</v>
+        <f>SUM(C3:C19)</f>
+        <v>70</v>
       </c>
       <c r="D20" s="25">
-        <v>2258.15</v>
+        <f>SUM(D3:D19)</f>
+        <v>1132377.6599999997</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
+        <v>1</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="24">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
+        <v>2</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="24">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
+        <v>3</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="24">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
+        <v>4</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="24">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
+        <v>5</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="24">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
+        <v>6</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="24">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
+        <v>7</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="24">
-        <v>1</v>
-      </c>
-      <c r="D21" s="33">
-        <v>678.5</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="C32" s="24">
         <v>4</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="24">
-        <v>111</v>
-      </c>
-      <c r="D22" s="25">
-        <f>SUM(D3:D21)</f>
-        <v>1194754.3600000001</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
+        <v>9</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="24">
         <v>2</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="24">
-        <v>9</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C35" s="24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C37" s="24">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C38" s="24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C39" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="24">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C40" s="34">
+        <v>3</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="24">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C41" s="34">
+        <v>1</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="24">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C42" s="34">
+        <v>1</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="22">
-        <v>11</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="24">
-        <v>2</v>
+      <c r="A43" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="34">
+        <f>SUM(C26:C42)</f>
+        <v>70</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22">
-        <v>12</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="24">
-        <v>7</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="22">
-        <v>13</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="24">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="22">
-        <v>14</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="24">
-        <v>5</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22">
-        <v>15</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="24">
-        <v>2</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="22">
-        <v>16</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="24">
-        <v>2</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22">
-        <v>17</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="34">
-        <v>1</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
-        <v>18</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="34">
-        <v>1</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="22">
-        <v>19</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="34">
-        <v>1</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="34">
-        <v>111</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1435,11 +1341,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -1447,11 +1353,11 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -1459,11 +1365,11 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -1480,11 +1386,11 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -1510,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C8" s="24">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -1521,10 +1427,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="24">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -1532,10 +1438,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C10" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -1543,10 +1449,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" s="24">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -1554,10 +1460,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="24">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -1565,10 +1471,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="24">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -1576,10 +1482,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C14" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -1587,7 +1493,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="24">
         <v>6</v>
@@ -1598,10 +1504,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C16" s="24">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -1609,10 +1515,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -1620,10 +1526,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C18" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -1631,10 +1537,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="24">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -1642,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C20" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -1653,10 +1559,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C21" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -1664,10 +1570,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C22" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -1675,10 +1581,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C23" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -1686,10 +1592,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
@@ -1697,46 +1603,25 @@
         <v>18</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C25" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
-        <v>19</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="A26" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="32"/>
       <c r="C26" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
-        <v>20</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="24">
-        <v>111</v>
+        <f>SUM(C8:C25)</f>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
